--- a/public/template/organization.xlsx
+++ b/public/template/organization.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2AD124-3756-4336-B0BB-046AD0EE68A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FDEB75-67B6-4C58-855C-3C0A2B8B72B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Расчетный счет</t>
   </si>
@@ -54,12 +54,15 @@
   <si>
     <t>bank_klient</t>
   </si>
+  <si>
+    <t>1, 2, 3, 4 qatorlarga iltimos tegmang</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +83,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="MS Sans Serif"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +104,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -136,13 +157,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -428,33 +452,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -476,35 +500,55 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="84" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-    </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1">
+        <v>123123</v>
+      </c>
+      <c r="B5" s="2">
+        <v>123123</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123123</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123123</v>
+      </c>
+      <c r="E5" s="1">
+        <v>123123</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>

--- a/public/template/organization.xlsx
+++ b/public/template/organization.xlsx
@@ -158,10 +158,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,8 +473,8 @@
   <cols>
     <col min="1" max="1" style="7" width="37.71928571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="35.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="37.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="38.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.75" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A5" s="4">
         <v>123123</v>
       </c>

--- a/public/template/organization.xlsx
+++ b/public/template/organization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U0153\Desktop\jurnal\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C776FA-AE4C-42B7-8090-3B79CC02FA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0695A33-E494-4AA6-84F9-AFF949AE2913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>inn</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>1, 2, 3, 4 qatorlarga iltimos tegmang</t>
-  </si>
-  <si>
-    <t>ИНН</t>
-  </si>
-  <si>
-    <t>НАЗВАНИЯ</t>
-  </si>
-  <si>
-    <t>МФО</t>
   </si>
   <si>
     <t xml:space="preserve">Xisob raqami </t>
@@ -80,6 +71,18 @@
   </si>
   <si>
     <t>123123123 / 123123123</t>
+  </si>
+  <si>
+    <t>Inn</t>
+  </si>
+  <si>
+    <t>Nomi</t>
+  </si>
+  <si>
+    <t>Okonx</t>
+  </si>
+  <si>
+    <t>MFO</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,82 +622,82 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
